--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_38.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_38.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9938283779263645</v>
+        <v>0.9104529295989703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7208299924183461</v>
+        <v>0.6547821165847321</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7037524927600287</v>
+        <v>0.6562910141514777</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9772601937631594</v>
+        <v>0.8162994684225713</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02590097759401297</v>
+        <v>0.3758098983368711</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866811126158206</v>
+        <v>2.308473575980087</v>
       </c>
       <c r="H2" t="n">
-        <v>1.059660155979955</v>
+        <v>1.229427112988093</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03068720742087102</v>
+        <v>0.1012044611284517</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2940002829364882</v>
+        <v>2.421633742613951</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1609378066024667</v>
+        <v>0.6130333582578285</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003612656823591</v>
+        <v>0.6929814729107553</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1677892622167208</v>
+        <v>0.6391314574728595</v>
       </c>
       <c r="N2" t="n">
-        <v>137.3069491320928</v>
+        <v>35.95734370595065</v>
       </c>
       <c r="O2" t="n">
-        <v>216.5338777485258</v>
+        <v>56.67823272871006</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9938388648144163</v>
+        <v>0.9101385908550236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7206139260399972</v>
+        <v>0.6543605699401547</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7041917889166426</v>
+        <v>0.6563144770684339</v>
       </c>
       <c r="E3" t="n">
-        <v>0.978907230611318</v>
+        <v>0.8184966878650748</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02585696636824095</v>
+        <v>0.3771291108010743</v>
       </c>
       <c r="G3" t="n">
-        <v>1.868255963025119</v>
+        <v>2.31129246033342</v>
       </c>
       <c r="H3" t="n">
-        <v>1.058088819099602</v>
+        <v>1.229343187494599</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02846454286239397</v>
+        <v>0.09999396702835271</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2892363812223974</v>
+        <v>2.426992380315674</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1608010148234175</v>
+        <v>0.6141083868512742</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003606518157415</v>
+        <v>0.6919037400743666</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1676466469284395</v>
+        <v>0.6402522522591443</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3103504446651</v>
+        <v>35.95033536238974</v>
       </c>
       <c r="O3" t="n">
-        <v>216.5372790610982</v>
+        <v>56.67122438514915</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.993843243806512</v>
+        <v>0.9098163947493583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7203928275442384</v>
+        <v>0.6539338660963261</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7046259324257192</v>
+        <v>0.6563325761183323</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9804899745735096</v>
+        <v>0.820683156705923</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02583858867518038</v>
+        <v>0.3784812989315441</v>
       </c>
       <c r="G4" t="n">
-        <v>1.869734449684323</v>
+        <v>2.314145830901893</v>
       </c>
       <c r="H4" t="n">
-        <v>1.056535912940721</v>
+        <v>1.229278448242556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02632864109805895</v>
+        <v>0.09878939565933123</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2844266987962849</v>
+        <v>2.43239972667158</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1607438604587447</v>
+        <v>0.6152083378267431</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003603954844969</v>
+        <v>0.6907990677120854</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1675870593841367</v>
+        <v>0.6413990304248512</v>
       </c>
       <c r="N4" t="n">
-        <v>137.3117724387859</v>
+        <v>35.9431772313927</v>
       </c>
       <c r="O4" t="n">
-        <v>216.5387010552189</v>
+        <v>56.66406625415211</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9938414025567434</v>
+        <v>0.9091479257639143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7201667535013289</v>
+        <v>0.6530506695042586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7050548937652245</v>
+        <v>0.6563524080982659</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9820065156205086</v>
+        <v>0.8249952008474596</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02584631600657464</v>
+        <v>0.381286720262873</v>
       </c>
       <c r="G5" t="n">
-        <v>1.871246207850235</v>
+        <v>2.320051770579794</v>
       </c>
       <c r="H5" t="n">
-        <v>1.055001543101919</v>
+        <v>1.229207510400258</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02428207969877477</v>
+        <v>0.09641380044488643</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2795703679856925</v>
+        <v>2.443334454311503</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1607678948253495</v>
+        <v>0.6174841862451808</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003605032649711</v>
+        <v>0.6885071740477063</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1676121169434859</v>
+        <v>0.6437717664221174</v>
       </c>
       <c r="N5" t="n">
-        <v>137.3111744048725</v>
+        <v>35.92840728050989</v>
       </c>
       <c r="O5" t="n">
-        <v>216.5381030213055</v>
+        <v>56.6492963032693</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.993833220489913</v>
+        <v>0.9088011867266914</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7199355828027262</v>
+        <v>0.6525974123380109</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7054782509549223</v>
+        <v>0.6563533933720771</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9834554796573881</v>
+        <v>0.8271265975764933</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02588065439073316</v>
+        <v>0.3827419098268038</v>
       </c>
       <c r="G6" t="n">
-        <v>1.872792047376234</v>
+        <v>2.32308270333755</v>
       </c>
       <c r="H6" t="n">
-        <v>1.05348721898203</v>
+        <v>1.229203986132964</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02232671299591035</v>
+        <v>0.09523956945295334</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2746681499969565</v>
+        <v>2.44887181605996</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1608746542831815</v>
+        <v>0.6186613854337474</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003609822152246</v>
+        <v>0.6873183544915134</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1677234213724603</v>
+        <v>0.6449990814172797</v>
       </c>
       <c r="N6" t="n">
-        <v>137.3085190481842</v>
+        <v>35.92078876326464</v>
       </c>
       <c r="O6" t="n">
-        <v>216.5354476646172</v>
+        <v>56.64167778602405</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9938185279662074</v>
+        <v>0.9084459310203039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7196992397517157</v>
+        <v>0.6521377232968235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7058960735076236</v>
+        <v>0.6563487391256639</v>
       </c>
       <c r="E7" t="n">
-        <v>0.984835280316644</v>
+        <v>0.8292398486573029</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02594231576966342</v>
+        <v>0.3842328420293109</v>
       </c>
       <c r="G7" t="n">
-        <v>1.874372474446601</v>
+        <v>2.326156646072643</v>
       </c>
       <c r="H7" t="n">
-        <v>1.051992691937761</v>
+        <v>1.229220634102516</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02046468178117452</v>
+        <v>0.09407533527776632</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2697204110210081</v>
+        <v>2.454455851564989</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1610661844387686</v>
+        <v>0.6198651805266294</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003618422653927</v>
+        <v>0.6861003349267563</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1679231053632928</v>
+        <v>0.646254124559465</v>
       </c>
       <c r="N7" t="n">
-        <v>137.3037596599949</v>
+        <v>35.91301310140938</v>
       </c>
       <c r="O7" t="n">
-        <v>216.5306882764279</v>
+        <v>56.63390212416879</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9937972105220025</v>
+        <v>0.9077088188926512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7194576275860418</v>
+        <v>0.6511921206041076</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7063075126214515</v>
+        <v>0.6563210204720216</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9861450018209684</v>
+        <v>0.8334017560083067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02603178052270949</v>
+        <v>0.387326343944175</v>
       </c>
       <c r="G8" t="n">
-        <v>1.875988136110984</v>
+        <v>2.332479895632934</v>
       </c>
       <c r="H8" t="n">
-        <v>1.050520998084209</v>
+        <v>1.229319782119375</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01869722188955658</v>
+        <v>0.09178245355821975</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2647246096987311</v>
+        <v>2.465761955191636</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1613436720875953</v>
+        <v>0.6223554803680731</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003630901157852</v>
+        <v>0.6835730933462327</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1682124062358088</v>
+        <v>0.6488504416207903</v>
       </c>
       <c r="N8" t="n">
-        <v>137.2968743191971</v>
+        <v>35.89697535059152</v>
       </c>
       <c r="O8" t="n">
-        <v>216.5238029356302</v>
+        <v>56.61786437335093</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9937691814639443</v>
+        <v>0.9069353035973584</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7192107229142057</v>
+        <v>0.650210689725212</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7067128601380788</v>
+        <v>0.6562675472220656</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9873826607023233</v>
+        <v>0.8374724047465786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02614941248333303</v>
+        <v>0.3905726221661667</v>
       </c>
       <c r="G9" t="n">
-        <v>1.877639188788443</v>
+        <v>2.339042728439183</v>
       </c>
       <c r="H9" t="n">
-        <v>1.049071093520633</v>
+        <v>1.22951105283391</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01702700999712253</v>
+        <v>0.08953984811520625</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2596790167070251</v>
+        <v>2.477248505124254</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1617077996985088</v>
+        <v>0.6249580963281992</v>
       </c>
       <c r="L9" t="n">
-        <v>1.00364730841135</v>
+        <v>0.6809210409052289</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1685920355129668</v>
+        <v>0.6515638563304967</v>
       </c>
       <c r="N9" t="n">
-        <v>137.2878571118003</v>
+        <v>35.88028270947317</v>
       </c>
       <c r="O9" t="n">
-        <v>216.5147857282333</v>
+        <v>56.60117173223258</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9937341934114916</v>
+        <v>0.9061235065557316</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7189583630269953</v>
+        <v>0.6491958756907017</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7071114737789177</v>
+        <v>0.6561863132362828</v>
       </c>
       <c r="E10" t="n">
-        <v>0.988547020238725</v>
+        <v>0.8414392205358463</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02629624985474423</v>
+        <v>0.3939795606881934</v>
       </c>
       <c r="G10" t="n">
-        <v>1.879326720516229</v>
+        <v>2.345828794560743</v>
       </c>
       <c r="H10" t="n">
-        <v>1.047645275640299</v>
+        <v>1.229801622090837</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01545571505142755</v>
+        <v>0.08735444641330935</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2545845709376875</v>
+        <v>2.488925449431802</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1621611847969305</v>
+        <v>0.6276779115822011</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003667789222541</v>
+        <v>0.6781377367625083</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1690647221536649</v>
+        <v>0.6543994597506552</v>
       </c>
       <c r="N10" t="n">
-        <v>137.2766578820797</v>
+        <v>35.86291249491147</v>
       </c>
       <c r="O10" t="n">
-        <v>216.5035864985128</v>
+        <v>56.58380151767088</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9936921944111636</v>
+        <v>0.9024578933192668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7187005987892566</v>
+        <v>0.6447423578259339</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7075037101676253</v>
+        <v>0.6555532989810164</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9896367098986235</v>
+        <v>0.856076485207216</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02647251067458796</v>
+        <v>0.4093633552843625</v>
       </c>
       <c r="G11" t="n">
-        <v>1.881050391160883</v>
+        <v>2.375609489029009</v>
       </c>
       <c r="H11" t="n">
-        <v>1.046242268821064</v>
+        <v>1.23206587737765</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01398518657508955</v>
+        <v>0.07929047147137455</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2494408942128668</v>
+        <v>2.537580724099519</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1627037512615734</v>
+        <v>0.6398150946049668</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003692374003221</v>
+        <v>0.6655699199517721</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1696303867959751</v>
+        <v>0.6670533477821324</v>
       </c>
       <c r="N11" t="n">
-        <v>137.2632968348533</v>
+        <v>35.78630423620818</v>
       </c>
       <c r="O11" t="n">
-        <v>216.4902254512864</v>
+        <v>56.50719325896759</v>
       </c>
     </row>
   </sheetData>
